--- a/Tests/WorkSpeed.Import.Tests/TestFiles/empty.xlsx
+++ b/Tests/WorkSpeed.Import.Tests/TestFiles/empty.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +18,12 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +57,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -323,7 +327,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -333,7 +337,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="A1:K19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
